--- a/biology/Neurosciences/Paul_Bucy/Paul_Bucy.xlsx
+++ b/biology/Neurosciences/Paul_Bucy/Paul_Bucy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Clancy Bucy, né le 13 novembre 1904 à Hubbard, dans l’Iowa, aux États-Unis et mort le 22 septembre 1992 est un médecin neurologue, neurochirurgien et neuropathologiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à l'université de l'Iowa, puis devient assistant du neurochirurgien Percival Bailey (1892-1973) à l’université de Chicago. Au début des années 1930, il se rend en Europe où il se perfectionne en neurologie auprès de Gordon Morgan Holmes (1876-1965) à Londres et d’Otfrid Foerster (1874-1941) à Breslau. En 1941, il est nommé professeur de neurologie et de chirurgie neurologique à l’université de l'Illinois à Chicago et durant la Seconde Guerre mondiale il est consultant médical pour l’U.S. Army.
 De 1954 à 1972, Bucy est professeur de neurochirurgie à l’Université Northwestern puis, il est nommé professeur de neurologie et de chirurgie neurologique à la Bowman Gray School of Medicine à Winston-Salem. En 1972, il crée la revue Surgical Neurology dont il reste rédacteur en chef jusqu'en 1987.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) The precentral motor cortex. Urbana: Univ. of Illinois Press, 1944 (2nd ed. 1949)
 (en) Neurosurgical giants: feet of clay and iron / ed. Paul C. Bucy. New York [u.a.]: Elsevier, 1985.  (ISBN 0-444-00939-6).
@@ -576,7 +592,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Paul Bucy » (voir la liste des auteurs).
 (de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Paul Bucy » (voir la liste des auteurs).</t>
